--- a/Biomass/my_graphs/impact_2.xlsx
+++ b/Biomass/my_graphs/impact_2.xlsx
@@ -537,67 +537,67 @@
         <v>3309.841788963415</v>
       </c>
       <c r="C2">
-        <v>5064.581800125539</v>
+        <v>0.9342006137594581</v>
       </c>
       <c r="D2">
         <v>10.47585177795554</v>
       </c>
       <c r="E2">
-        <v>12.12806101447495</v>
+        <v>0.002237113061710261</v>
       </c>
       <c r="F2">
         <v>4.243447371991351</v>
       </c>
       <c r="G2">
-        <v>10.48621589520917</v>
+        <v>0.001934262247232255</v>
       </c>
       <c r="H2">
         <v>0.02499597928272124</v>
       </c>
       <c r="I2">
-        <v>0.04870603804738494</v>
+        <v>8.984197847894393E-06</v>
       </c>
       <c r="J2">
         <v>81.44519608281553</v>
       </c>
       <c r="K2">
-        <v>281.2619923269376</v>
+        <v>0.05188091238960624</v>
       </c>
       <c r="L2">
         <v>349.3489199660253</v>
       </c>
       <c r="M2">
-        <v>2853.258378982078</v>
+        <v>0.5263051991350949</v>
       </c>
       <c r="N2">
         <v>2469.158954096027</v>
       </c>
       <c r="O2">
-        <v>1616.065311706159</v>
+        <v>0.2980955326929688</v>
       </c>
       <c r="P2">
-        <v>0.653527165635151</v>
+        <v>3542.966831978176</v>
       </c>
       <c r="Q2">
-        <v>1.530158274336031</v>
+        <v>0.0002822493258966416</v>
       </c>
       <c r="R2">
-        <v>-92.63045676508045</v>
+        <v>-104.7562806664937</v>
       </c>
       <c r="S2">
-        <v>-31.94825782470434</v>
+        <v>-42.43253945766628</v>
       </c>
       <c r="T2">
-        <v>-0.2012537547798274</v>
+        <v>-0.2499508086293645</v>
       </c>
       <c r="U2">
-        <v>-23075.52422925411</v>
+        <v>-24691.29144542757</v>
       </c>
       <c r="V2">
-        <v>-533.1899685012177</v>
+        <v>-814.4000799157657</v>
       </c>
       <c r="W2">
-        <v>-640.2308206781745</v>
+        <v>-3492.962894461118</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -608,67 +608,67 @@
         <v>3327.993454588577</v>
       </c>
       <c r="C3">
-        <v>5064.581800125539</v>
+        <v>0.9342006137594581</v>
       </c>
       <c r="D3">
         <v>10.53983948373934</v>
       </c>
       <c r="E3">
-        <v>12.12806101447495</v>
+        <v>0.002237113061710261</v>
       </c>
       <c r="F3">
         <v>4.268049398786388</v>
       </c>
       <c r="G3">
-        <v>10.48621589520917</v>
+        <v>0.001934262247232255</v>
       </c>
       <c r="H3">
         <v>0.02514704201075801</v>
       </c>
       <c r="I3">
-        <v>0.04870603804738494</v>
+        <v>8.984197847894393E-06</v>
       </c>
       <c r="J3">
         <v>81.82490065647289</v>
       </c>
       <c r="K3">
-        <v>281.2619923269376</v>
+        <v>0.05188091238960624</v>
       </c>
       <c r="L3">
         <v>350.466563125141</v>
       </c>
       <c r="M3">
-        <v>2853.258378982078</v>
+        <v>0.5263051991350949</v>
       </c>
       <c r="N3">
         <v>2482.130704695592</v>
       </c>
       <c r="O3">
-        <v>1616.065311706159</v>
+        <v>0.2980955326929688</v>
       </c>
       <c r="P3">
-        <v>0.6571112060044294</v>
+        <v>3562.396990081065</v>
       </c>
       <c r="Q3">
-        <v>1.5218124281893</v>
+        <v>0.0002807098711301247</v>
       </c>
       <c r="R3">
-        <v>-93.27033382291847</v>
+        <v>-105.3961577243317</v>
       </c>
       <c r="S3">
-        <v>-32.19427809265471</v>
+        <v>-42.67855972561665</v>
       </c>
       <c r="T3">
-        <v>-0.2027643820601952</v>
+        <v>-0.2514614359097322</v>
       </c>
       <c r="U3">
-        <v>-23205.24173524976</v>
+        <v>-24821.00895142322</v>
       </c>
       <c r="V3">
-        <v>-536.9870142377913</v>
+        <v>-818.1971256523393</v>
       </c>
       <c r="W3">
-        <v>-651.4072522693314</v>
+        <v>-3504.139326052275</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -679,67 +679,67 @@
         <v>3346.145104406402</v>
       </c>
       <c r="C4">
-        <v>5064.581800125539</v>
+        <v>0.9342006137594581</v>
       </c>
       <c r="D4">
         <v>10.60382713380386</v>
       </c>
       <c r="E4">
-        <v>12.12806101447495</v>
+        <v>0.002237113061710261</v>
       </c>
       <c r="F4">
         <v>4.292651404164644</v>
       </c>
       <c r="G4">
-        <v>10.48621589520917</v>
+        <v>0.001934262247232255</v>
       </c>
       <c r="H4">
         <v>0.02529810460782755</v>
       </c>
       <c r="I4">
-        <v>0.04870603804738494</v>
+        <v>8.984197847894393E-06</v>
       </c>
       <c r="J4">
         <v>82.20460489904508</v>
       </c>
       <c r="K4">
-        <v>281.2619923269376</v>
+        <v>0.05188091238960624</v>
       </c>
       <c r="L4">
         <v>351.5842053110246</v>
       </c>
       <c r="M4">
-        <v>2853.258378982078</v>
+        <v>0.5263051991350949</v>
       </c>
       <c r="N4">
         <v>2495.102443999844</v>
       </c>
       <c r="O4">
-        <v>1616.065311706159</v>
+        <v>0.2980955326929688</v>
       </c>
       <c r="P4">
-        <v>0.6606952432525541</v>
+        <v>3581.827131263244</v>
       </c>
       <c r="Q4">
-        <v>1.51355713577878</v>
+        <v>0.0002791871196886374</v>
       </c>
       <c r="R4">
-        <v>-93.91021032356366</v>
+        <v>-106.0360342249769</v>
       </c>
       <c r="S4">
-        <v>-32.44029814643727</v>
+        <v>-42.92457977939921</v>
       </c>
       <c r="T4">
-        <v>-0.2042750080308906</v>
+        <v>-0.2529720618804276</v>
       </c>
       <c r="U4">
-        <v>-23334.95912829228</v>
+        <v>-24950.72634446574</v>
       </c>
       <c r="V4">
-        <v>-540.7840566635132</v>
+        <v>-821.9941680780612</v>
       </c>
       <c r="W4">
-        <v>-662.5836741281673</v>
+        <v>-3515.315747911111</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -750,67 +750,67 @@
         <v>3364.296738419682</v>
       </c>
       <c r="C5">
-        <v>5064.581800125539</v>
+        <v>0.9342006137594581</v>
       </c>
       <c r="D5">
         <v>10.66781472816365</v>
       </c>
       <c r="E5">
-        <v>12.12806101447495</v>
+        <v>0.002237113061710261</v>
       </c>
       <c r="F5">
         <v>4.317253388111567</v>
       </c>
       <c r="G5">
-        <v>10.48621589520917</v>
+        <v>0.001934262247232255</v>
       </c>
       <c r="H5">
         <v>0.02544916707392986</v>
       </c>
       <c r="I5">
-        <v>0.04870603804738494</v>
+        <v>8.984197847894393E-06</v>
       </c>
       <c r="J5">
         <v>82.58430881099775</v>
       </c>
       <c r="K5">
-        <v>281.2619923269376</v>
+        <v>0.05188091238960624</v>
       </c>
       <c r="L5">
         <v>352.7018465232104</v>
       </c>
       <c r="M5">
-        <v>2853.258378982078</v>
+        <v>0.5263051991350949</v>
       </c>
       <c r="N5">
         <v>2508.074172008783</v>
       </c>
       <c r="O5">
-        <v>1616.065311706159</v>
+        <v>0.2980955326929688</v>
       </c>
       <c r="P5">
-        <v>0.6642792773800767</v>
+        <v>3601.257255527703</v>
       </c>
       <c r="Q5">
-        <v>1.505390931272173</v>
+        <v>0.0002776808011882691</v>
       </c>
       <c r="R5">
-        <v>-94.55008626716153</v>
+        <v>-106.6759101685748</v>
       </c>
       <c r="S5">
-        <v>-32.6863179859065</v>
+        <v>-43.17059961886844</v>
       </c>
       <c r="T5">
-        <v>-0.2057856326919136</v>
+        <v>-0.2544826865414507</v>
       </c>
       <c r="U5">
-        <v>-23464.67640838167</v>
+        <v>-25080.44362455513</v>
       </c>
       <c r="V5">
-        <v>-544.5810957830399</v>
+        <v>-825.7912071975879</v>
       </c>
       <c r="W5">
-        <v>-673.7600862500258</v>
+        <v>-3526.492160032969</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -821,67 +821,67 @@
         <v>3382.448356626555</v>
       </c>
       <c r="C6">
-        <v>5064.581800125539</v>
+        <v>0.9342006137594581</v>
       </c>
       <c r="D6">
         <v>10.73180226680415</v>
       </c>
       <c r="E6">
-        <v>12.12806101447495</v>
+        <v>0.002237113061710261</v>
       </c>
       <c r="F6">
         <v>4.341855350643527</v>
       </c>
       <c r="G6">
-        <v>10.48621589520917</v>
+        <v>0.001934262247232255</v>
       </c>
       <c r="H6">
         <v>0.02560022940724593</v>
       </c>
       <c r="I6">
-        <v>0.04870603804738494</v>
+        <v>8.984197847894393E-06</v>
       </c>
       <c r="J6">
         <v>82.96401239233091</v>
       </c>
       <c r="K6">
-        <v>281.2619923269376</v>
+        <v>0.05188091238960624</v>
       </c>
       <c r="L6">
         <v>353.8194867619313</v>
       </c>
       <c r="M6">
-        <v>2853.258378982078</v>
+        <v>0.5263051991350949</v>
       </c>
       <c r="N6">
         <v>2521.045888723573</v>
       </c>
       <c r="O6">
-        <v>1616.065311706159</v>
+        <v>0.2980955326929688</v>
       </c>
       <c r="P6">
-        <v>0.6678633083866298</v>
+        <v>3620.687362872449</v>
       </c>
       <c r="Q6">
-        <v>1.497312380306861</v>
+        <v>0.0002761906510499311</v>
       </c>
       <c r="R6">
-        <v>-95.18996165356657</v>
+        <v>-107.3157855549798</v>
       </c>
       <c r="S6">
-        <v>-32.9323376112261</v>
+        <v>-43.41661924418804</v>
       </c>
       <c r="T6">
-        <v>-0.2072962560250744</v>
+        <v>-0.2559933098746114</v>
       </c>
       <c r="U6">
-        <v>-23594.39357552957</v>
+        <v>-25210.16079170303</v>
       </c>
       <c r="V6">
-        <v>-548.3781315963715</v>
+        <v>-829.5882430109195</v>
       </c>
       <c r="W6">
-        <v>-684.936488637235</v>
+        <v>-3537.668562420178</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -892,67 +892,67 @@
         <v>3400.599959028885</v>
       </c>
       <c r="C7">
-        <v>5064.581800125539</v>
+        <v>0.9342006137594581</v>
       </c>
       <c r="D7">
         <v>10.79578974971082</v>
       </c>
       <c r="E7">
-        <v>12.12806101447495</v>
+        <v>0.002237113061710261</v>
       </c>
       <c r="F7">
         <v>4.36645729175325</v>
       </c>
       <c r="G7">
-        <v>10.48621589520917</v>
+        <v>0.001934262247232255</v>
       </c>
       <c r="H7">
         <v>0.02575129160777578</v>
       </c>
       <c r="I7">
-        <v>0.04870603804738494</v>
+        <v>8.984197847894393E-06</v>
       </c>
       <c r="J7">
         <v>83.34371564351022</v>
       </c>
       <c r="K7">
-        <v>281.2619923269376</v>
+        <v>0.05188091238960624</v>
       </c>
       <c r="L7">
         <v>354.9371260283515</v>
       </c>
       <c r="M7">
-        <v>2853.258378982078</v>
+        <v>0.5263051991350949</v>
       </c>
       <c r="N7">
         <v>2534.017594142817</v>
       </c>
       <c r="O7">
-        <v>1616.065311706159</v>
+        <v>0.2980955326929688</v>
       </c>
       <c r="P7">
-        <v>0.6714473362725807</v>
+        <v>3640.117453299475</v>
       </c>
       <c r="Q7">
-        <v>1.489320079146222</v>
+        <v>0.0002747164103437322</v>
       </c>
       <c r="R7">
-        <v>-95.82983648263325</v>
+        <v>-107.9556603840465</v>
       </c>
       <c r="S7">
-        <v>-33.17835702232333</v>
+        <v>-43.66263865528526</v>
       </c>
       <c r="T7">
-        <v>-0.2088068780303729</v>
+        <v>-0.2575039318799099</v>
       </c>
       <c r="U7">
-        <v>-23724.11062972201</v>
+        <v>-25339.87784589548</v>
       </c>
       <c r="V7">
-        <v>-552.1751641081646</v>
+        <v>-833.3852755227126</v>
       </c>
       <c r="W7">
-        <v>-696.1128813014366</v>
+        <v>-3548.84495508438</v>
       </c>
     </row>
   </sheetData>
